--- a/Results/13/Output.xlsx
+++ b/Results/13/Output.xlsx
@@ -498,7 +498,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>352.2</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="G3" t="n">
-        <v>319.5</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +560,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>797.2</v>
+        <v>752.6</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>710.5</v>
+        <v>675.25</v>
       </c>
     </row>
     <row r="7">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10.4</v>
+        <v>6.4</v>
       </c>
       <c r="G7" t="n">
-        <v>598</v>
+        <v>562.4</v>
       </c>
     </row>
     <row r="8">
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
       <c r="G8" t="n">
-        <v>679</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>687</v>
+        <v>635.5</v>
       </c>
     </row>
     <row r="10">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="G10" t="n">
-        <v>395.75</v>
+        <v>358.25</v>
       </c>
     </row>
     <row r="11">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="G11" t="n">
-        <v>411</v>
+        <v>390.25</v>
       </c>
     </row>
     <row r="12">
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>413.25</v>
+        <v>392.5</v>
       </c>
     </row>
     <row r="13">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>277.5</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14">
@@ -867,10 +867,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15">
@@ -901,7 +901,7 @@
         <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>383.25</v>
+        <v>359.75</v>
       </c>
     </row>
     <row r="16">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>13.2</v>
+        <v>12.4</v>
       </c>
       <c r="G16" t="n">
-        <v>266.4</v>
+        <v>247.2</v>
       </c>
     </row>
     <row r="17">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>777</v>
+        <v>698.5</v>
       </c>
     </row>
     <row r="18">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="G18" t="n">
-        <v>1031</v>
+        <v>946.25</v>
       </c>
     </row>
     <row r="19">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>696</v>
+        <v>740.67</v>
       </c>
     </row>
     <row r="20">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>13.33</v>
       </c>
       <c r="G20" t="n">
-        <v>291.75</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21">
@@ -1087,7 +1087,7 @@
         <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>344.67</v>
+        <v>327.67</v>
       </c>
     </row>
     <row r="22">
@@ -1118,7 +1118,7 @@
         <v>13</v>
       </c>
       <c r="G22" t="n">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23">
@@ -1149,7 +1149,7 @@
         <v>10.4</v>
       </c>
       <c r="G23" t="n">
-        <v>892.4</v>
+        <v>877.2</v>
       </c>
     </row>
     <row r="24">
@@ -1180,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>898.5</v>
+        <v>886</v>
       </c>
     </row>
     <row r="25">
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>661.8</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26">
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>645</v>
+        <v>584.33</v>
       </c>
     </row>
     <row r="27">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>11.6</v>
+        <v>10.4</v>
       </c>
       <c r="G27" t="n">
-        <v>600.6</v>
+        <v>559.4</v>
       </c>
     </row>
     <row r="28">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>10.67</v>
+        <v>9.33</v>
       </c>
       <c r="G28" t="n">
-        <v>486.67</v>
+        <v>448.67</v>
       </c>
     </row>
     <row r="29">
@@ -1335,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>623.2</v>
+        <v>588.6</v>
       </c>
     </row>
     <row r="30">
@@ -1366,7 +1366,7 @@
         <v>10.5</v>
       </c>
       <c r="G30" t="n">
-        <v>530.25</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31">
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="G31" t="n">
-        <v>431</v>
+        <v>402.8</v>
       </c>
     </row>
     <row r="32">
@@ -1428,7 +1428,7 @@
         <v>11.5</v>
       </c>
       <c r="G32" t="n">
-        <v>588</v>
+        <v>566.5</v>
       </c>
     </row>
     <row r="33">
@@ -1459,7 +1459,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>553</v>
+        <v>530.8</v>
       </c>
     </row>
     <row r="34">
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>9.6</v>
+        <v>6</v>
       </c>
       <c r="G34" t="n">
-        <v>452</v>
+        <v>430.6</v>
       </c>
     </row>
     <row r="35">
@@ -1518,10 +1518,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="G35" t="n">
-        <v>1035.4</v>
+        <v>911.6</v>
       </c>
     </row>
     <row r="36">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="G36" t="n">
-        <v>876.75</v>
+        <v>803.75</v>
       </c>
     </row>
     <row r="37">
@@ -1580,10 +1580,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="G37" t="n">
-        <v>846.25</v>
+        <v>846.67</v>
       </c>
     </row>
   </sheetData>

--- a/Results/13/Output.xlsx
+++ b/Results/13/Output.xlsx
@@ -490,7 +490,7 @@
     <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
